--- a/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM3_USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM3_USM_LGM_SerialNumber.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUI\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -397,45 +397,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I572"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E485" sqref="E485"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D381" sqref="D381:D384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="1"/>
-    <col min="7" max="8" width="8.796875" style="4"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.78515625" style="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.78515625" style="1"/>
+    <col min="7" max="8" width="8.78515625" style="4"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -464,7 +464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -493,7 +493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -522,7 +522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -551,7 +551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -580,7 +580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -609,7 +609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -638,7 +638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -667,7 +667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -696,7 +696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -725,7 +725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -754,7 +754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -783,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -812,7 +812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -841,7 +841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -870,7 +870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -899,7 +899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -928,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -957,7 +957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -986,7 +986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -2407,12 +2407,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>129</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>130</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>131</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>132</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>133</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>134</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>135</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>136</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>137</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>138</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>139</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>140</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>141</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>142</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>143</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>144</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>145</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>146</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>147</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>148</v>
       </c>
@@ -2632,22 +2632,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>3</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>4</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>5</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>6</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>7</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>8</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>9</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>10</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>11</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>12</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>13</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>14</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>15</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>16</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>17</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>18</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>19</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>20</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>21</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>22</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>23</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>24</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>25</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>26</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>27</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>28</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>29</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>30</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>31</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>32</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>33</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>34</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>35</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>36</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>37</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>38</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>39</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>40</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>41</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>42</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>43</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>44</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>45</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>46</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>47</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>48</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>49</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>50</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>51</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>52</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>53</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>54</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>55</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>56</v>
       </c>
@@ -4271,13 +4271,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>129</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>130</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>131</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>132</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>133</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>134</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>135</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>136</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>137</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>138</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>139</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>140</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>141</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>142</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>143</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>144</v>
       </c>
@@ -4453,22 +4453,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>1</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>2</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>3</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>4</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>5</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>6</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>7</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>8</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>9</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>10</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>11</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>12</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>13</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>14</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>15</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>16</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>17</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>18</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>19</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>20</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>21</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>22</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>23</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>24</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>25</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>26</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>27</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>28</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>29</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>30</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>31</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>32</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>33</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>34</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>35</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>36</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>37</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>38</v>
       </c>
@@ -5570,12 +5570,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>129</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>130</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>131</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>132</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>133</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>134</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>135</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>136</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>137</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>138</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>139</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>140</v>
       </c>
@@ -5707,22 +5707,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>1</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>2</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>3</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>4</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>5</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>6</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>7</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>8</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>9</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>10</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>11</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>12</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>13</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>14</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>15</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>16</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>17</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>18</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>19</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>20</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>21</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>22</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>23</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>24</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>25</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>26</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>27</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>28</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>29</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>30</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>31</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>32</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>33</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>34</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>35</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>36</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>37</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>38</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>39</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>40</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>41</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>42</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>43</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>44</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>45</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>46</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>47</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>48</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>49</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>50</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>51</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>52</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>53</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>54</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>55</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>56</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>57</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>58</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>59</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>60</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>61</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>62</v>
       </c>
@@ -7520,12 +7520,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>129</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>130</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>131</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>132</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>133</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>134</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>135</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>136</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>137</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>138</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>139</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>140</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>141</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>142</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>143</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>144</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>145</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>146</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>147</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>148</v>
       </c>
@@ -7745,22 +7745,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>1</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>2</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>3</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>4</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>5</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>6</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>7</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>8</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>9</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>10</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>11</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>12</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>13</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>14</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>15</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>16</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1">
         <v>17</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1">
         <v>18</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>19</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1">
         <v>20</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1">
         <v>21</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1">
         <v>22</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1">
         <v>23</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1">
         <v>24</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1">
         <v>25</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1">
         <v>26</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1">
         <v>27</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>28</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="D354" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E354" s="1">
         <v>220</v>
@@ -8572,7 +8572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1">
         <v>29</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1">
         <v>30</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="D356" s="1">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E356" s="1">
         <v>220</v>
@@ -8630,7 +8630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1">
         <v>31</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="D357" s="1">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E357" s="1">
         <v>220</v>
@@ -8659,7 +8659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1">
         <v>32</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="D358" s="1">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E358" s="1">
         <v>220</v>
@@ -8688,7 +8688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1">
         <v>33</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="D359" s="1">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E359" s="1">
         <v>220</v>
@@ -8717,7 +8717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1">
         <v>34</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="D360" s="1">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E360" s="1">
         <v>220</v>
@@ -8746,7 +8746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1">
         <v>35</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="D361" s="1">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E361" s="1">
         <v>220</v>
@@ -8775,7 +8775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1">
         <v>36</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="D362" s="1">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E362" s="1">
         <v>220</v>
@@ -8804,7 +8804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1">
         <v>37</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="D363" s="1">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E363" s="1">
         <v>220</v>
@@ -8833,7 +8833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1">
         <v>38</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="D364" s="1">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E364" s="1">
         <v>220</v>
@@ -8862,7 +8862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1">
         <v>39</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="D365" s="1">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E365" s="1">
         <v>220</v>
@@ -8891,7 +8891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1">
         <v>40</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="D366" s="1">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E366" s="1">
         <v>220</v>
@@ -8920,7 +8920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1">
         <v>41</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="D367" s="1">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E367" s="1">
         <v>220</v>
@@ -8949,7 +8949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1">
         <v>42</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="1">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E368" s="1">
         <v>220</v>
@@ -8978,7 +8978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1">
         <v>43</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="D369" s="1">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E369" s="1">
         <v>220</v>
@@ -9007,7 +9007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1">
         <v>44</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="D370" s="1">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E370" s="1">
         <v>220</v>
@@ -9036,7 +9036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1">
         <v>45</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="D371" s="1">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E371" s="1">
         <v>220</v>
@@ -9065,7 +9065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1">
         <v>46</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="D372" s="1">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E372" s="1">
         <v>220</v>
@@ -9094,7 +9094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1">
         <v>47</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="D373" s="1">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E373" s="1">
         <v>220</v>
@@ -9123,7 +9123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1">
         <v>48</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="D374" s="1">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E374" s="1">
         <v>220</v>
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1">
         <v>49</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="D375" s="1">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E375" s="1">
         <v>220</v>
@@ -9181,7 +9181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1">
         <v>50</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="D376" s="1">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E376" s="1">
         <v>220</v>
@@ -9210,7 +9210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1">
         <v>51</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="D377" s="1">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E377" s="1">
         <v>220</v>
@@ -9239,7 +9239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1">
         <v>52</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="D378" s="1">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E378" s="1">
         <v>220</v>
@@ -9268,7 +9268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1">
         <v>53</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="D379" s="1">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E379" s="1">
         <v>220</v>
@@ -9297,7 +9297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1">
         <v>54</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="D380" s="1">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E380" s="1">
         <v>220</v>
@@ -9326,7 +9326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1">
         <v>55</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="D381" s="1">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E381" s="1">
         <v>220</v>
@@ -9355,7 +9355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1">
         <v>56</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="D382" s="1">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E382" s="1">
         <v>220</v>
@@ -9384,7 +9384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1">
         <v>57</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
       <c r="D383" s="1">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E383" s="1">
         <v>220</v>
@@ -9413,7 +9413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1">
         <v>58</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="D384" s="1">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E384" s="1">
         <v>220</v>
@@ -9442,7 +9442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1">
         <v>59</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1">
         <v>60</v>
       </c>
@@ -9500,12 +9500,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1">
         <v>129</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1">
         <v>130</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1">
         <v>131</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1">
         <v>132</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1">
         <v>133</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1">
         <v>134</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1">
         <v>135</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1">
         <v>136</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1">
         <v>137</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1">
         <v>138</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1">
         <v>139</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1">
         <v>140</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1">
         <v>141</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1">
         <v>142</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1">
         <v>143</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1">
         <v>144</v>
       </c>
@@ -9681,22 +9681,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1">
         <v>1</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1">
         <v>2</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1">
         <v>3</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1">
         <v>4</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1">
         <v>5</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1">
         <v>6</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1">
         <v>7</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1">
         <v>8</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1">
         <v>9</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1">
         <v>10</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1">
         <v>11</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1">
         <v>12</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1">
         <v>13</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1">
         <v>14</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1">
         <v>15</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1">
         <v>16</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1">
         <v>17</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1">
         <v>18</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1">
         <v>19</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1">
         <v>20</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1">
         <v>21</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1">
         <v>22</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1">
         <v>23</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1">
         <v>24</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1">
         <v>25</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1">
         <v>26</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1">
         <v>27</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1">
         <v>28</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1">
         <v>29</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1">
         <v>30</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1">
         <v>31</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1">
         <v>32</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1">
         <v>33</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1">
         <v>34</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1">
         <v>35</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1">
         <v>36</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1">
         <v>37</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1">
         <v>38</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1">
         <v>39</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1">
         <v>40</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1">
         <v>41</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1">
         <v>42</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1">
         <v>43</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1">
         <v>44</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1">
         <v>45</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1">
         <v>46</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1">
         <v>47</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1">
         <v>48</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1">
         <v>49</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1">
         <v>50</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1">
         <v>51</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1">
         <v>52</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1">
         <v>53</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1">
         <v>54</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="1">
         <v>55</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="1">
         <v>56</v>
       </c>
@@ -11320,12 +11320,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1">
         <v>129</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1">
         <v>130</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1">
         <v>131</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1">
         <v>132</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1">
         <v>133</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1">
         <v>134</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1">
         <v>135</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1">
         <v>136</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1">
         <v>137</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1">
         <v>138</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1">
         <v>139</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1">
         <v>140</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1">
         <v>141</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1">
         <v>142</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1">
         <v>143</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="1">
         <v>144</v>
       </c>
@@ -11501,24 +11501,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C487" s="3"/>
       <c r="I487" s="3"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="1">
         <v>1</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="1">
         <v>2</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="1">
         <v>3</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="1">
         <v>4</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="1">
         <v>5</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="1">
         <v>6</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1">
         <v>7</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="1">
         <v>8</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="1">
         <v>9</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="1">
         <v>10</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="1">
         <v>11</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="1">
         <v>12</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="1">
         <v>13</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="1">
         <v>14</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="1">
         <v>15</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="1">
         <v>16</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="1">
         <v>17</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="1">
         <v>18</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="1">
         <v>19</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="1">
         <v>20</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="1">
         <v>21</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="1">
         <v>22</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="1">
         <v>23</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="1">
         <v>24</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="1">
         <v>25</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="1">
         <v>26</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="1">
         <v>27</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="1">
         <v>28</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="1">
         <v>29</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="1">
         <v>30</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="1">
         <v>31</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="1">
         <v>32</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="1">
         <v>33</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="1">
         <v>34</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="1">
         <v>35</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="1">
         <v>36</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="1">
         <v>37</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="1">
         <v>38</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="1">
         <v>39</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="1">
         <v>40</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="1">
         <v>41</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="1">
         <v>42</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="1">
         <v>43</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="1">
         <v>44</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="1">
         <v>45</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="1">
         <v>46</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="1">
         <v>47</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="1">
         <v>48</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="1">
         <v>49</v>
       </c>
@@ -12939,7 +12939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="1">
         <v>50</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="1">
         <v>51</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="1">
         <v>52</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="1">
         <v>53</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="1">
         <v>54</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="1">
         <v>55</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="1">
         <v>56</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="1">
         <v>46</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="1">
         <v>47</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="1">
         <v>48</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="1">
         <v>49</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="1">
         <v>50</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="1">
         <v>57</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="1">
         <v>58</v>
       </c>
@@ -13345,18 +13345,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C551" s="3"/>
       <c r="I551" s="3"/>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C552" s="3"/>
       <c r="I552" s="3"/>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="1">
         <v>129</v>
       </c>
@@ -13368,7 +13368,7 @@
       </c>
       <c r="I553" s="3"/>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="1">
         <v>130</v>
       </c>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="I554" s="3"/>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="1">
         <v>131</v>
       </c>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="I555" s="3"/>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="1">
         <v>132</v>
       </c>
@@ -13404,7 +13404,7 @@
       </c>
       <c r="I556" s="3"/>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="1">
         <v>133</v>
       </c>
@@ -13416,7 +13416,7 @@
       </c>
       <c r="I557" s="3"/>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="1">
         <v>134</v>
       </c>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="I558" s="3"/>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="1">
         <v>135</v>
       </c>
@@ -13440,7 +13440,7 @@
       </c>
       <c r="I559" s="3"/>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="1">
         <v>136</v>
       </c>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="I560" s="3"/>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="1">
         <v>137</v>
       </c>
@@ -13464,7 +13464,7 @@
       </c>
       <c r="I561" s="3"/>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="1">
         <v>138</v>
       </c>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="I562" s="3"/>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="1">
         <v>139</v>
       </c>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="I563" s="3"/>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="1">
         <v>140</v>
       </c>
@@ -13500,7 +13500,7 @@
       </c>
       <c r="I564" s="3"/>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="1">
         <v>141</v>
       </c>
@@ -13512,7 +13512,7 @@
       </c>
       <c r="I565" s="3"/>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="1">
         <v>142</v>
       </c>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="I566" s="3"/>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="1">
         <v>143</v>
       </c>
@@ -13536,7 +13536,7 @@
       </c>
       <c r="I567" s="3"/>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="1">
         <v>144</v>
       </c>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="I568" s="3"/>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="1">
         <v>145</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="1">
         <v>146</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="1">
         <v>147</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="1">
         <v>148</v>
       </c>

--- a/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM3_USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM3_USM_LGM_SerialNumber.xlsx
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D381" sqref="D381:D384"/>
+    <sheetView tabSelected="1" topLeftCell="A525" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A550" sqref="A550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4189,7 +4189,7 @@
         <v>54</v>
       </c>
       <c r="B154" s="2">
-        <v>5604</v>
+        <v>9412</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -5430,7 +5430,7 @@
         <v>34</v>
       </c>
       <c r="B213" s="2">
-        <v>5638</v>
+        <v>9417</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>14</v>
       </c>
       <c r="B252" s="2">
-        <v>5653</v>
+        <v>9420</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>45</v>
       </c>
       <c r="B283" s="2">
-        <v>5685</v>
+        <v>9414</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -12335,7 +12335,7 @@
         <v>29</v>
       </c>
       <c r="B516" s="2">
-        <v>5841</v>
+        <v>9419</v>
       </c>
       <c r="C516" s="3">
         <v>0</v>
@@ -13144,7 +13144,7 @@
     </row>
     <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="1">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B544" s="2">
         <v>5886</v>
@@ -13173,7 +13173,7 @@
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="1">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B545" s="2">
         <v>5887</v>
@@ -13202,7 +13202,7 @@
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="1">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B546" s="2">
         <v>5888</v>
@@ -13231,7 +13231,7 @@
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="1">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B547" s="2">
         <v>5889</v>
@@ -13260,7 +13260,7 @@
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="1">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B548" s="2">
         <v>5890</v>
@@ -13289,7 +13289,7 @@
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="1">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B549" s="2">
         <v>50000</v>
@@ -13317,33 +13317,8 @@
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A550" s="1">
-        <v>58</v>
-      </c>
-      <c r="B550" s="2">
-        <v>50001</v>
-      </c>
-      <c r="C550" s="3">
-        <v>0</v>
-      </c>
-      <c r="D550" s="1">
-        <v>148</v>
-      </c>
-      <c r="E550" s="1">
-        <v>220</v>
-      </c>
-      <c r="F550" s="1">
-        <v>100</v>
-      </c>
-      <c r="G550" s="4">
-        <v>10</v>
-      </c>
-      <c r="H550" s="4">
-        <v>3</v>
-      </c>
-      <c r="I550" s="3">
-        <v>99</v>
-      </c>
+      <c r="C550" s="3"/>
+      <c r="I550" s="3"/>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C551" s="3"/>
